--- a/Jimmy-NonImgToImg-code/2022_FFT_benchmarks.xlsx
+++ b/Jimmy-NonImgToImg-code/2022_FFT_benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmyliu/Documents/University/2021/INFO4001/Jimmy-NonImgToImg-code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmyliu/Documents/University/2021/INFO4001/git_repo/Jimmy-nonImageData-Image/Jimmy-NonImgToImg-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A66BBD-773C-4C4F-A71F-A642504A06DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F483ACF-3C2E-684C-BB6D-3A9FC2F9F69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deng_reads" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="97">
   <si>
     <t>Dataset</t>
   </si>
@@ -145,6 +145,186 @@
   </si>
   <si>
     <t>CPU Time</t>
+  </si>
+  <si>
+    <t>CPU Times</t>
+  </si>
+  <si>
+    <t>Peak Memory</t>
+  </si>
+  <si>
+    <t>22.8s</t>
+  </si>
+  <si>
+    <t>700.80 MiB</t>
+  </si>
+  <si>
+    <t>6min 5s</t>
+  </si>
+  <si>
+    <t>707.68MiB</t>
+  </si>
+  <si>
+    <t>31.6s</t>
+  </si>
+  <si>
+    <t>1180.03Mib</t>
+  </si>
+  <si>
+    <t>5min 37s</t>
+  </si>
+  <si>
+    <t>1187.43Mib</t>
+  </si>
+  <si>
+    <t>1min 47s</t>
+  </si>
+  <si>
+    <t>3624.43 MiB</t>
+  </si>
+  <si>
+    <t>3543.41Mib</t>
+  </si>
+  <si>
+    <t>7min 57s</t>
+  </si>
+  <si>
+    <t>CPU time</t>
+  </si>
+  <si>
+    <t>50.7s</t>
+  </si>
+  <si>
+    <t>2897.81Mib</t>
+  </si>
+  <si>
+    <t>10min 1s</t>
+  </si>
+  <si>
+    <t>2972.12Mib</t>
+  </si>
+  <si>
+    <t>38.1s</t>
+  </si>
+  <si>
+    <t>1781.14Mib</t>
+  </si>
+  <si>
+    <t>10min 9s</t>
+  </si>
+  <si>
+    <t>1412.44 Mib</t>
+  </si>
+  <si>
+    <t>24.5s</t>
+  </si>
+  <si>
+    <t>773.2Mib</t>
+  </si>
+  <si>
+    <t>8min 44s</t>
+  </si>
+  <si>
+    <t>780.99 MiB</t>
+  </si>
+  <si>
+    <t>16.8s</t>
+  </si>
+  <si>
+    <t>617.20Mib</t>
+  </si>
+  <si>
+    <t>5min 16s</t>
+  </si>
+  <si>
+    <t>1103.97MiB</t>
+  </si>
+  <si>
+    <t>3.66s</t>
+  </si>
+  <si>
+    <t>339.79Mib</t>
+  </si>
+  <si>
+    <t>10min 16s</t>
+  </si>
+  <si>
+    <t>347.79 Mib</t>
+  </si>
+  <si>
+    <t>1min 25s</t>
+  </si>
+  <si>
+    <t>2768.91 Mib</t>
+  </si>
+  <si>
+    <t>11min 36s</t>
+  </si>
+  <si>
+    <t>2779.81 Mib</t>
+  </si>
+  <si>
+    <t>Peak memory</t>
+  </si>
+  <si>
+    <t>4414.61MiB</t>
+  </si>
+  <si>
+    <t>1min 12s</t>
+  </si>
+  <si>
+    <t>10min 42s</t>
+  </si>
+  <si>
+    <t>3001.98MiB</t>
+  </si>
+  <si>
+    <t>2.64s</t>
+  </si>
+  <si>
+    <t>343.05MiB</t>
+  </si>
+  <si>
+    <t>4min 26s</t>
+  </si>
+  <si>
+    <t>346.93 MiB</t>
+  </si>
+  <si>
+    <t>2min 15s</t>
+  </si>
+  <si>
+    <t>3463 Mib</t>
+  </si>
+  <si>
+    <t>10min 39s</t>
+  </si>
+  <si>
+    <t>3376.08 MiB</t>
+  </si>
+  <si>
+    <t>3min 12s</t>
+  </si>
+  <si>
+    <t>5869.37MiB</t>
+  </si>
+  <si>
+    <t>10min 31s</t>
+  </si>
+  <si>
+    <t>5873MiB</t>
+  </si>
+  <si>
+    <t>1min 50s</t>
+  </si>
+  <si>
+    <t>3500 MiB</t>
+  </si>
+  <si>
+    <t>5min 48s</t>
+  </si>
+  <si>
+    <t>3511.99 MiB</t>
   </si>
 </sst>
 </file>
@@ -214,24 +394,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +626,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -463,7 +639,7 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,8 +673,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -532,8 +714,14 @@
       <c r="K2" s="1">
         <v>0.94330000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -567,8 +755,14 @@
       <c r="K3" s="1">
         <v>0.96089999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -602,8 +796,14 @@
       <c r="K4" s="1">
         <v>0.93989999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -638,7 +838,7 @@
         <v>0.9627</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -673,7 +873,7 @@
         <v>0.98150000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -708,7 +908,7 @@
         <v>0.83709999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -743,7 +943,7 @@
         <v>0.67869999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -778,7 +978,7 @@
         <v>0.70489999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -813,26 +1013,26 @@
         <v>0.67249999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>214</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>54</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>21297</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1">
@@ -848,26 +1048,26 @@
         <v>0.83679999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>214</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>54</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>21297</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1">
@@ -883,26 +1083,26 @@
         <v>0.91979999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>214</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>54</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>21297</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -918,26 +1118,26 @@
         <v>0.47570000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>214</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>54</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>21297</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1">
@@ -952,27 +1152,33 @@
       <c r="K14" s="1">
         <v>0.92549999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="L14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>214</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>54</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>21297</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1">
@@ -987,27 +1193,33 @@
       <c r="K15" s="1">
         <v>0.96299999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="L15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>214</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>54</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>21297</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
@@ -1021,6 +1233,12 @@
       </c>
       <c r="K16" s="1">
         <v>0.92530000000000001</v>
+      </c>
+      <c r="L16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1033,15 +1251,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,8 +1293,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1110,8 +1334,14 @@
       <c r="K2" s="1">
         <v>0.94799999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1145,8 +1375,14 @@
       <c r="K3" s="1">
         <v>0.96020000000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1180,8 +1416,14 @@
       <c r="K4" s="1">
         <v>0.92200000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1216,7 +1458,7 @@
         <v>0.89880000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1251,7 +1493,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1528,7 @@
         <v>0.44290000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1321,7 +1563,7 @@
         <v>0.5716</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1356,7 +1598,7 @@
         <v>0.59770000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1391,7 +1633,7 @@
         <v>0.5988</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1410,7 +1652,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1">
@@ -1426,26 +1668,26 @@
         <v>0.87309999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>2921</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>731</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>15711</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>8</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1">
@@ -1461,26 +1703,26 @@
         <v>0.89480000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>2921</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>731</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>15711</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>8</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -1496,26 +1738,26 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="1">
         <v>2921</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="1">
         <v>731</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="1">
         <v>15711</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1">
@@ -1530,27 +1772,33 @@
       <c r="K14" s="1">
         <v>0.81630000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="1">
         <v>2921</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="1">
         <v>731</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="1">
         <v>15711</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1">
@@ -1565,27 +1813,33 @@
       <c r="K15" s="1">
         <v>0.9325</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="1">
         <v>2921</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="1">
         <v>731</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="1">
         <v>15711</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="1">
         <v>8</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
@@ -1599,6 +1853,12 @@
       </c>
       <c r="K16" s="1">
         <v>0.91790000000000005</v>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1611,15 +1871,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1653,8 +1913,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1688,8 +1954,14 @@
       <c r="K2" s="1">
         <v>0.97619999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1723,8 +1995,14 @@
       <c r="K3" s="1">
         <v>0.86129999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,8 +2036,14 @@
       <c r="K4" s="1">
         <v>0.90339999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1794,7 +2078,7 @@
         <v>0.88080000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,7 +2113,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1864,7 +2148,7 @@
         <v>0.79869999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1899,7 +2183,7 @@
         <v>0.86580000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1934,7 +2218,7 @@
         <v>0.84219999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1969,7 +2253,7 @@
         <v>0.84219999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1988,7 +2272,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1">
@@ -2004,7 +2288,7 @@
         <v>0.84089999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2023,7 +2307,7 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1">
@@ -2039,7 +2323,7 @@
         <v>0.87829999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2058,7 +2342,7 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -2074,26 +2358,26 @@
         <v>0.70760000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>676</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>170</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>20101</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1">
@@ -2108,27 +2392,33 @@
       <c r="K14" s="1">
         <v>0.95109999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>676</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>170</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>20101</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1">
@@ -2143,27 +2433,33 @@
       <c r="K15" s="1">
         <v>0.95279999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>676</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>170</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>20101</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
@@ -2177,6 +2473,12 @@
       </c>
       <c r="K16" s="1">
         <v>0.90390000000000004</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2189,15 +2491,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2231,8 +2533,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -2266,8 +2574,14 @@
       <c r="K2" s="1">
         <v>0.88580000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -2301,8 +2615,14 @@
       <c r="K3" s="1">
         <v>0.87409999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2336,8 +2656,14 @@
       <c r="K4" s="1">
         <v>0.85419999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2372,7 +2698,7 @@
         <v>0.87690000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -2407,7 +2733,7 @@
         <v>0.8659</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2442,7 +2768,7 @@
         <v>0.35749999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,7 +2803,7 @@
         <v>0.48649999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2512,7 +2838,7 @@
         <v>0.47820000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -2547,7 +2873,7 @@
         <v>0.48680000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -2566,7 +2892,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1">
@@ -2582,7 +2908,7 @@
         <v>0.8397</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -2601,7 +2927,7 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1">
@@ -2617,7 +2943,7 @@
         <v>0.86919999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -2636,7 +2962,7 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -2652,26 +2978,26 @@
         <v>0.67710000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1343</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>336</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>21614</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>18</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1">
@@ -2686,27 +3012,33 @@
       <c r="K14" s="1">
         <v>0.90149999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="L14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>1343</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>336</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>21614</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>18</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1">
@@ -2721,27 +3053,33 @@
       <c r="K15" s="1">
         <v>0.74880000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="L15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>1343</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>336</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>21614</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>18</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
@@ -2756,9 +3094,16 @@
       <c r="K16" s="1">
         <v>0.86350000000000005</v>
       </c>
+      <c r="L16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2767,15 +3112,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J16"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2809,8 +3154,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -2844,8 +3195,14 @@
       <c r="K2" s="1">
         <v>0.92390000000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2879,8 +3236,14 @@
       <c r="K3" s="1">
         <v>0.92130000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2914,8 +3277,14 @@
       <c r="K4" s="1">
         <v>0.90349999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2950,7 +3319,7 @@
         <v>0.86429999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2985,7 +3354,7 @@
         <v>0.89849999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -3020,7 +3389,7 @@
         <v>0.3508</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -3055,7 +3424,7 @@
         <v>0.64929999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -3090,7 +3459,7 @@
         <v>0.6542</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3125,7 +3494,7 @@
         <v>0.65449999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -3144,7 +3513,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1">
@@ -3160,7 +3529,7 @@
         <v>0.78990000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -3179,7 +3548,7 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1">
@@ -3195,7 +3564,7 @@
         <v>0.87780000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -3214,7 +3583,7 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -3230,26 +3599,26 @@
         <v>0.70389999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1061</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>266</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>20016</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1">
@@ -3264,27 +3633,33 @@
       <c r="K14" s="1">
         <v>0.94059999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>1061</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>266</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>20016</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>9</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1">
@@ -3299,27 +3674,33 @@
       <c r="K15" s="1">
         <v>0.95489999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="L15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>1061</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>266</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>20016</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
@@ -3333,6 +3714,12 @@
       </c>
       <c r="K16" s="1">
         <v>0.93969999999999998</v>
+      </c>
+      <c r="L16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3345,15 +3732,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3387,8 +3774,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -3422,8 +3815,14 @@
       <c r="K2" s="1">
         <v>0.48609999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -3457,8 +3856,14 @@
       <c r="K3" s="1">
         <v>0.43330000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -3492,8 +3897,14 @@
       <c r="K4" s="1">
         <v>0.40339999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -3528,7 +3939,7 @@
         <v>0.4093</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -3563,7 +3974,7 @@
         <v>0.2974</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -3598,7 +4009,7 @@
         <v>0.13350000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3633,7 +4044,7 @@
         <v>0.1837</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -3668,7 +4079,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3703,7 +4114,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -3722,7 +4133,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1">
@@ -3738,7 +4149,7 @@
         <v>0.3427</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -3757,7 +4168,7 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1">
@@ -3773,7 +4184,7 @@
         <v>0.36380000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -3792,7 +4203,7 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -3808,26 +4219,26 @@
         <v>0.35149999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" ht="15">
+      <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1720</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>430</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>21988</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>32</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1">
@@ -3836,33 +4247,39 @@
       <c r="I14" s="1">
         <v>0.50229999999999997</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>0.38100000000000001</v>
       </c>
       <c r="K14" s="1">
         <v>0.4667</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>1720</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>430</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>21988</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>32</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1">
@@ -3877,27 +4294,33 @@
       <c r="K15" s="1">
         <v>0.50870000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="L15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>1720</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>430</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>21988</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>32</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
@@ -3911,6 +4334,12 @@
       </c>
       <c r="K16" s="1">
         <v>0.38119999999999998</v>
+      </c>
+      <c r="L16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3922,8 +4351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685D8DF7-8BCA-884D-A2BF-A3097AA67BB7}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3932,37 +4361,37 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3982,25 +4411,25 @@
       <c r="E2">
         <v>120</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="10">
         <v>0.84289999999999998</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="8">
         <v>0.84289999999999998</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="8">
         <v>0.5978</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="8">
         <v>0.83409999999999995</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4020,13 +4449,13 @@
       <c r="E3">
         <v>120</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="10">
         <v>0.84250000000000003</v>
       </c>
       <c r="I3">
@@ -4038,12 +4467,12 @@
       <c r="K3">
         <v>0.83260000000000001</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="I4" s="12"/>
+      <c r="I4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4055,10 +4484,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -4068,7 +4497,7 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4102,8 +4531,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4137,8 +4572,14 @@
       <c r="K2" s="1">
         <v>0.97650000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4172,8 +4613,14 @@
       <c r="K3" s="1">
         <v>0.9839</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4654,14 @@
       <c r="K4" s="1">
         <v>0.97350000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -4243,7 +4696,7 @@
         <v>0.95909999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -4278,7 +4731,7 @@
         <v>0.97589999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -4313,7 +4766,7 @@
         <v>0.59950000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,7 +4801,7 @@
         <v>0.84519999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -4383,7 +4836,7 @@
         <v>0.90139999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4418,7 +4871,7 @@
         <v>0.90139999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -4437,7 +4890,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1">
@@ -4453,7 +4906,7 @@
         <v>0.9284</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -4472,7 +4925,7 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1">
@@ -4488,7 +4941,7 @@
         <v>0.98450000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -4507,7 +4960,7 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -4523,7 +4976,7 @@
         <v>0.8972</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -4539,10 +4992,10 @@
       <c r="E14" s="1">
         <v>6</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1">
@@ -4557,8 +5010,14 @@
       <c r="K14" s="1">
         <v>0.98450000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -4574,10 +5033,10 @@
       <c r="E15" s="1">
         <v>6</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1">
@@ -4592,8 +5051,14 @@
       <c r="K15" s="1">
         <v>0.99209999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -4609,10 +5074,10 @@
       <c r="E16" s="1">
         <v>6</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
@@ -4626,6 +5091,12 @@
       </c>
       <c r="K16" s="1">
         <v>0.97440000000000004</v>
+      </c>
+      <c r="L16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4638,15 +5109,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4680,8 +5151,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -4715,8 +5192,14 @@
       <c r="K2" s="1">
         <v>0.99070000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -4750,8 +5233,14 @@
       <c r="K3" s="1">
         <v>0.99460000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4785,8 +5274,14 @@
       <c r="K4" s="1">
         <v>0.9869</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -4821,7 +5316,7 @@
         <v>0.98919999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -4856,7 +5351,7 @@
         <v>0.98850000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4891,7 +5386,7 @@
         <v>0.66930000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -4926,7 +5421,7 @@
         <v>0.67290000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4961,7 +5456,7 @@
         <v>0.67249999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4996,7 +5491,7 @@
         <v>0.67249999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -5015,7 +5510,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1">
@@ -5031,7 +5526,7 @@
         <v>0.99539999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -5050,7 +5545,7 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1">
@@ -5066,7 +5561,7 @@
         <v>0.99539999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -5085,7 +5580,7 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -5101,7 +5596,7 @@
         <v>0.98380000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -5117,10 +5612,10 @@
       <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1">
@@ -5135,8 +5630,14 @@
       <c r="K14" s="1">
         <v>0.96879999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -5152,10 +5653,10 @@
       <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1">
@@ -5170,8 +5671,14 @@
       <c r="K15" s="1">
         <v>0.98399999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -5187,10 +5694,10 @@
       <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
@@ -5204,6 +5711,12 @@
       </c>
       <c r="K16" s="1">
         <v>0.96850000000000003</v>
+      </c>
+      <c r="L16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5216,15 +5729,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5258,8 +5771,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -5293,8 +5812,14 @@
       <c r="K2" s="1">
         <v>0.91879999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -5328,8 +5853,14 @@
       <c r="K3" s="1">
         <v>0.94569999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -5363,8 +5894,14 @@
       <c r="K4" s="1">
         <v>0.94030000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5399,7 +5936,7 @@
         <v>0.91259999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -5434,7 +5971,7 @@
         <v>0.90859999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -5469,7 +6006,7 @@
         <v>0.70940000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -5504,7 +6041,7 @@
         <v>0.48849999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -5539,7 +6076,7 @@
         <v>0.52859999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -5574,7 +6111,7 @@
         <v>0.52859999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -5593,7 +6130,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1">
@@ -5609,7 +6146,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -5628,7 +6165,7 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1">
@@ -5644,7 +6181,7 @@
         <v>0.92330000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -5663,7 +6200,7 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -5679,26 +6216,26 @@
         <v>0.88849999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>2404</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>601</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>19972</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1">
@@ -5713,27 +6250,33 @@
       <c r="K14" s="1">
         <v>0.92030000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="L14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>2404</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>601</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>19972</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>9</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1">
@@ -5748,27 +6291,33 @@
       <c r="K15" s="1">
         <v>0.96120000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="L15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>2404</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>601</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>19972</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
@@ -5777,11 +6326,17 @@
       <c r="I16" s="1">
         <v>0.94510000000000005</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="3">
         <v>0.86509999999999998</v>
       </c>
       <c r="K16" s="1">
         <v>0.94359999999999999</v>
+      </c>
+      <c r="L16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5794,15 +6349,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5836,15 +6391,21 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15">
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>72</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>18</v>
       </c>
       <c r="D2" s="1">
@@ -5859,27 +6420,33 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15">
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>72</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>18</v>
       </c>
       <c r="D3" s="1">
@@ -5894,27 +6461,33 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>0.94440000000000002</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>0.94440000000000002</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>0.94810000000000005</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>0.94199999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15">
+      <c r="L3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>72</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>18</v>
       </c>
       <c r="D4" s="1">
@@ -5929,27 +6502,33 @@
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>1</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15">
+      <c r="L4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>72</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>18</v>
       </c>
       <c r="D5" s="1">
@@ -5964,27 +6543,27 @@
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>1</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>72</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>18</v>
       </c>
       <c r="D6" s="1">
@@ -5999,27 +6578,27 @@
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>1</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>72</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>18</v>
       </c>
       <c r="D7" s="1">
@@ -6047,14 +6626,14 @@
         <v>0.94810000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>72</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>18</v>
       </c>
       <c r="D8" s="1">
@@ -6082,14 +6661,14 @@
         <v>0.78820000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>72</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>18</v>
       </c>
       <c r="D9" s="1">
@@ -6117,14 +6696,14 @@
         <v>0.78820000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>72</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>18</v>
       </c>
       <c r="D10" s="1">
@@ -6152,14 +6731,14 @@
         <v>0.84719999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>72</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>18</v>
       </c>
       <c r="D11" s="1">
@@ -6171,30 +6750,30 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>72</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>18</v>
       </c>
       <c r="D12" s="1">
@@ -6206,30 +6785,30 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>1</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>1</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>72</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>18</v>
       </c>
       <c r="D13" s="1">
@@ -6241,7 +6820,7 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -6257,109 +6836,127 @@
         <v>0.66120000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>72</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>18</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>19596</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>6</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>1</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <v>1</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <v>1</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="L14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>72</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>18</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>19596</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>6</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>1</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <v>1</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <v>1</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="L15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>72</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>18</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>19596</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>6</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <v>1</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>1</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -6372,15 +6969,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:K14"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6414,8 +7011,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -6437,20 +7040,26 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>1</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -6484,8 +7093,14 @@
       <c r="K3" s="1">
         <v>0.99539999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -6519,8 +7134,14 @@
       <c r="K4" s="1">
         <v>0.98870000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -6555,7 +7176,7 @@
         <v>0.99539999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -6577,20 +7198,20 @@
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>1</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -6625,7 +7246,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -6660,7 +7281,7 @@
         <v>0.99480000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -6682,20 +7303,20 @@
       <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>1</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -6717,20 +7338,20 @@
       <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>1</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -6749,7 +7370,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1">
@@ -6765,7 +7386,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -6784,23 +7405,23 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>1</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>1</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6819,7 +7440,7 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -6835,61 +7456,67 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>820</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>206</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>13947</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="7">
         <v>1</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="7">
         <v>1</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>820</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>206</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>13947</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1">
@@ -6904,27 +7531,33 @@
       <c r="K15" s="1">
         <v>0.99480000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>820</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>206</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>13947</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
@@ -6938,6 +7571,12 @@
       </c>
       <c r="K16" s="1">
         <v>0.97099999999999997</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6950,15 +7589,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+    <sheetView topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6992,8 +7631,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -7027,8 +7672,14 @@
       <c r="K2" s="1">
         <v>0.6492</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -7062,8 +7713,14 @@
       <c r="K3" s="1">
         <v>0.59519999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -7097,8 +7754,14 @@
       <c r="K4" s="1">
         <v>0.65780000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -7133,7 +7796,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -7168,7 +7831,7 @@
         <v>0.42859999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -7203,7 +7866,7 @@
         <v>0.47070000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -7238,7 +7901,7 @@
         <v>0.4551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -7273,7 +7936,7 @@
         <v>0.3952</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -7308,7 +7971,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -7327,7 +7990,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1">
@@ -7343,7 +8006,7 @@
         <v>0.50480000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -7362,7 +8025,7 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1">
@@ -7378,7 +8041,7 @@
         <v>0.50480000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -7397,7 +8060,7 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -7413,26 +8076,26 @@
         <v>0.50480000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>52</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>14</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>25416</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>6</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1">
@@ -7447,27 +8110,33 @@
       <c r="K14" s="1">
         <v>0.52980000000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="L14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>52</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>14</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>25416</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>6</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1">
@@ -7482,27 +8151,33 @@
       <c r="K15" s="1">
         <v>0.4738</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="L15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>52</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>14</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>25416</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>6</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
@@ -7516,6 +8191,12 @@
       </c>
       <c r="K16" s="1">
         <v>0.5262</v>
+      </c>
+      <c r="L16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -7529,15 +8210,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7571,8 +8252,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -7606,8 +8293,14 @@
       <c r="K2" s="1">
         <v>0.98870000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -7641,8 +8334,14 @@
       <c r="K3" s="1">
         <v>0.98250000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -7676,8 +8375,14 @@
       <c r="K4" s="1">
         <v>0.96489999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -7708,11 +8413,11 @@
       <c r="J5" s="1">
         <v>0.97240000000000004</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>0.97250000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -7743,11 +8448,11 @@
       <c r="J6" s="1">
         <v>0.97860000000000003</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>0.97860000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -7782,7 +8487,7 @@
         <v>0.65039999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -7817,7 +8522,7 @@
         <v>0.91820000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -7852,7 +8557,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -7887,7 +8592,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -7906,7 +8611,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1">
@@ -7922,7 +8627,7 @@
         <v>0.99119999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -7941,7 +8646,7 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1">
@@ -7957,7 +8662,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -7976,7 +8681,7 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -7992,26 +8697,26 @@
         <v>0.98250000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>3195</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>799</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>15568</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1">
@@ -8026,27 +8731,33 @@
       <c r="K14" s="1">
         <v>0.95760000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="L14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>3195</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>799</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>15568</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1">
@@ -8061,27 +8772,33 @@
       <c r="K15" s="1">
         <v>0.98370000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="L15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>3195</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>799</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>15568</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
@@ -8095,6 +8812,12 @@
       </c>
       <c r="K16" s="1">
         <v>0.96760000000000002</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -8107,15 +8830,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8149,8 +8872,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -8184,8 +8913,14 @@
       <c r="K2" s="1">
         <v>0.80810000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -8219,8 +8954,14 @@
       <c r="K3" s="1">
         <v>0.3261</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -8254,8 +8995,14 @@
       <c r="K4" s="1">
         <v>0.69310000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -8290,7 +9037,7 @@
         <v>0.26290000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -8325,7 +9072,7 @@
         <v>0.36580000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -8360,7 +9107,7 @@
         <v>0.16209999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -8395,7 +9142,7 @@
         <v>0.52539999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -8430,7 +9177,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -8465,7 +9212,7 @@
         <v>0.50839999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -8484,7 +9231,7 @@
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1">
@@ -8500,7 +9247,7 @@
         <v>0.37440000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -8519,7 +9266,7 @@
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1">
@@ -8535,7 +9282,7 @@
         <v>0.3478</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -8554,7 +9301,7 @@
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="1">
@@ -8570,26 +9317,26 @@
         <v>0.26250000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>372</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>94</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>21631</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="1">
@@ -8604,27 +9351,33 @@
       <c r="K14" s="1">
         <v>0.9153</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="L14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>372</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>94</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>21631</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>9</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="1">
@@ -8639,27 +9392,33 @@
       <c r="K15" s="1">
         <v>0.11990000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="L15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>372</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>94</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>21631</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1">
@@ -8673,6 +9432,12 @@
       </c>
       <c r="K16" s="1">
         <v>0.79049999999999998</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Jimmy-NonImgToImg-code/2022_FFT_benchmarks.xlsx
+++ b/Jimmy-NonImgToImg-code/2022_FFT_benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmyliu/Documents/University/2021/INFO4001/git_repo/Jimmy-nonImageData-Image/Jimmy-NonImgToImg-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F483ACF-3C2E-684C-BB6D-3A9FC2F9F69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563ACDAB-3832-FF44-911C-8375CC0C8367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deng_reads" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="100">
   <si>
     <t>Dataset</t>
   </si>
@@ -325,6 +325,15 @@
   </si>
   <si>
     <t>3511.99 MiB</t>
+  </si>
+  <si>
+    <t>MemUsed</t>
+  </si>
+  <si>
+    <t>5518.27MiB</t>
+  </si>
+  <si>
+    <t>5546.27 MiB</t>
   </si>
 </sst>
 </file>
@@ -4349,15 +4358,15 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685D8DF7-8BCA-884D-A2BF-A3097AA67BB7}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4394,8 +4403,11 @@
       <c r="L1" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -4432,8 +4444,11 @@
       <c r="L2" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4470,8 +4485,11 @@
       <c r="L3" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="I4" s="8"/>
     </row>
   </sheetData>
@@ -8212,7 +8230,7 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>

--- a/Jimmy-NonImgToImg-code/2022_FFT_benchmarks.xlsx
+++ b/Jimmy-NonImgToImg-code/2022_FFT_benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmyliu/Documents/University/2021/INFO4001/git_repo/Jimmy-nonImageData-Image/Jimmy-NonImgToImg-code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563ACDAB-3832-FF44-911C-8375CC0C8367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3EAB14-4806-7A43-BF99-3D4BEDFBE9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="101">
   <si>
     <t>Dataset</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>5546.27 MiB</t>
+  </si>
+  <si>
+    <t>RAW</t>
   </si>
 </sst>
 </file>
@@ -4358,10 +4361,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685D8DF7-8BCA-884D-A2BF-A3097AA67BB7}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4490,7 +4493,112 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="I4" s="8"/>
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>9589</v>
+      </c>
+      <c r="C4">
+        <v>2397</v>
+      </c>
+      <c r="D4">
+        <v>23433</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.44169999999999998</v>
+      </c>
+      <c r="K4">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>9589</v>
+      </c>
+      <c r="C5">
+        <v>2397</v>
+      </c>
+      <c r="D5">
+        <v>23433</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.3044</v>
+      </c>
+      <c r="K5">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>9589</v>
+      </c>
+      <c r="C6">
+        <v>2397</v>
+      </c>
+      <c r="D6">
+        <v>23433</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="I6">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="J6">
+        <v>0.04</v>
+      </c>
+      <c r="K6">
+        <v>0.18970000000000001</v>
+      </c>
+      <c r="L6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
